--- a/Joel Test and Survival Test/Tests.xlsx
+++ b/Joel Test and Survival Test/Tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="16260" windowHeight="7152"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="16260" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>The Joel Test</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,11 +203,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -213,6 +251,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,182 +579,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14">
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6">
         <f>SUM(C2:C13)/12</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <f t="shared" ref="D14:E14" si="0">SUM(D2:D13)/12</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -703,8 +813,11 @@
       <c r="C17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -714,8 +827,11 @@
       <c r="C18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -725,8 +841,11 @@
       <c r="C19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -736,8 +855,11 @@
       <c r="C20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -747,8 +869,11 @@
       <c r="C21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>6</v>
       </c>
@@ -758,8 +883,11 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>7</v>
       </c>
@@ -769,8 +897,11 @@
       <c r="C23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -780,8 +911,11 @@
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>9</v>
       </c>
@@ -791,8 +925,11 @@
       <c r="C25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>10</v>
       </c>
@@ -802,8 +939,11 @@
       <c r="C26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>11</v>
       </c>
@@ -813,8 +953,11 @@
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>12</v>
       </c>
@@ -824,8 +967,11 @@
       <c r="C28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>13</v>
       </c>
@@ -835,8 +981,11 @@
       <c r="C29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>14</v>
       </c>
@@ -846,8 +995,11 @@
       <c r="C30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>15</v>
       </c>
@@ -857,8 +1009,11 @@
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>16</v>
       </c>
@@ -868,8 +1023,11 @@
       <c r="C32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>17</v>
       </c>
@@ -879,8 +1037,11 @@
       <c r="C33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>18</v>
       </c>
@@ -890,8 +1051,11 @@
       <c r="C34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>19</v>
       </c>
@@ -901,8 +1065,11 @@
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>20</v>
       </c>
@@ -912,8 +1079,11 @@
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>21</v>
       </c>
@@ -923,8 +1093,11 @@
       <c r="C37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>22</v>
       </c>
@@ -934,8 +1107,11 @@
       <c r="C38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>23</v>
       </c>
@@ -945,8 +1121,11 @@
       <c r="C39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>24</v>
       </c>
@@ -956,8 +1135,11 @@
       <c r="C40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>25</v>
       </c>
@@ -967,8 +1149,11 @@
       <c r="C41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>26</v>
       </c>
@@ -978,8 +1163,11 @@
       <c r="C42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>27</v>
       </c>
@@ -989,8 +1177,11 @@
       <c r="C43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>28</v>
       </c>
@@ -1000,8 +1191,11 @@
       <c r="C44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>29</v>
       </c>
@@ -1011,8 +1205,11 @@
       <c r="C45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>30</v>
       </c>
@@ -1022,8 +1219,11 @@
       <c r="C46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>31</v>
       </c>
@@ -1033,8 +1233,11 @@
       <c r="C47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>32</v>
       </c>
@@ -1044,8 +1247,11 @@
       <c r="C48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>33</v>
       </c>
@@ -1055,8 +1261,11 @@
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -1064,8 +1273,16 @@
         <f>SUM(C17:C49)*1.5</f>
         <v>103.5</v>
       </c>
+      <c r="D50">
+        <f>SUM(D17:D49)*1.5</f>
+        <v>115.5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -1073,12 +1290,239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>31</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="6">
+        <f>Sheet1!C50</f>
+        <v>103.5</v>
+      </c>
+      <c r="D17" s="6">
+        <f>Sheet1!D50</f>
+        <v>115.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1089,7 +1533,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Joel Test and Survival Test/Tests.xlsx
+++ b/Joel Test and Survival Test/Tests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>The Joel Test</t>
   </si>
@@ -178,8 +178,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -195,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -238,11 +246,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -252,12 +280,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -276,6 +298,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D50"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,14 +621,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E1" t="s">
@@ -605,205 +636,232 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6">
-        <f>SUM(C2:C13)/12</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" ref="D14:E14" si="0">SUM(D2:D13)/12</f>
-        <v>0.75</v>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4">
+        <f>SUM(C2:C13)</f>
+        <v>7</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM(D2:D13)</f>
+        <v>9</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E2:E13)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -816,8 +874,11 @@
       <c r="D17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -830,8 +891,11 @@
       <c r="D18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -844,8 +908,11 @@
       <c r="D19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -858,8 +925,11 @@
       <c r="D20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -872,8 +942,11 @@
       <c r="D21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>6</v>
       </c>
@@ -886,8 +959,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>7</v>
       </c>
@@ -900,8 +976,11 @@
       <c r="D23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -914,8 +993,11 @@
       <c r="D24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>9</v>
       </c>
@@ -928,8 +1010,11 @@
       <c r="D25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>10</v>
       </c>
@@ -942,8 +1027,11 @@
       <c r="D26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>11</v>
       </c>
@@ -956,8 +1044,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>12</v>
       </c>
@@ -970,8 +1061,11 @@
       <c r="D28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>13</v>
       </c>
@@ -984,8 +1078,11 @@
       <c r="D29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>14</v>
       </c>
@@ -998,8 +1095,11 @@
       <c r="D30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>15</v>
       </c>
@@ -1012,8 +1112,11 @@
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>16</v>
       </c>
@@ -1026,8 +1129,11 @@
       <c r="D32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>17</v>
       </c>
@@ -1040,8 +1146,11 @@
       <c r="D33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>18</v>
       </c>
@@ -1054,8 +1163,11 @@
       <c r="D34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>19</v>
       </c>
@@ -1068,8 +1180,11 @@
       <c r="D35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>20</v>
       </c>
@@ -1082,8 +1197,11 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>21</v>
       </c>
@@ -1096,8 +1214,11 @@
       <c r="D37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>22</v>
       </c>
@@ -1110,8 +1231,11 @@
       <c r="D38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>23</v>
       </c>
@@ -1124,8 +1248,11 @@
       <c r="D39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>24</v>
       </c>
@@ -1138,8 +1265,11 @@
       <c r="D40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>25</v>
       </c>
@@ -1152,8 +1282,11 @@
       <c r="D41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>26</v>
       </c>
@@ -1166,8 +1299,11 @@
       <c r="D42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>27</v>
       </c>
@@ -1180,8 +1316,11 @@
       <c r="D43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>28</v>
       </c>
@@ -1194,8 +1333,11 @@
       <c r="D44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>29</v>
       </c>
@@ -1208,8 +1350,11 @@
       <c r="D45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>30</v>
       </c>
@@ -1222,8 +1367,11 @@
       <c r="D46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>31</v>
       </c>
@@ -1236,8 +1384,11 @@
       <c r="D47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>32</v>
       </c>
@@ -1250,8 +1401,11 @@
       <c r="D48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>33</v>
       </c>
@@ -1264,8 +1418,11 @@
       <c r="D49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -1276,6 +1433,9 @@
       <c r="D50">
         <f>SUM(D17:D49)*1.5</f>
         <v>115.5</v>
+      </c>
+      <c r="E50">
+        <v>117.5</v>
       </c>
     </row>
   </sheetData>
@@ -1290,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,222 +1461,264 @@
     <col min="2" max="2" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="11" t="s">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="11" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="11" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>28</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="6">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>29</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>30</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="6">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>31</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>32</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>33</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="12" t="s">
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <f>Sheet1!C50</f>
         <v>103.5</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <f>Sheet1!D50</f>
         <v>115.5</v>
+      </c>
+      <c r="E17">
+        <v>117.5</v>
       </c>
     </row>
   </sheetData>
